--- a/web/Statistik/Players/CTH-IBL SEASON 2017-2018.xlsx
+++ b/web/Statistik/Players/CTH-IBL SEASON 2017-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Otong" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="41">
   <si>
     <t>ID_Pemain</t>
   </si>
@@ -256,15 +256,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -280,6 +277,10 @@
     <xf numFmtId="15" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:Z6"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,34 +585,34 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -694,242 +695,482 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>42812</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>25.16</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>2</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5">
-        <v>2</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="5">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="5">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5">
-        <v>3</v>
-      </c>
-      <c r="S4" s="5">
-        <v>4</v>
-      </c>
-      <c r="T4" s="5">
-        <v>1</v>
-      </c>
-      <c r="U4" s="5">
-        <v>1</v>
-      </c>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="7">
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>3</v>
+      </c>
+      <c r="S4" s="4">
+        <v>4</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="6">
         <v>-3</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>42806</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>14.98</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>3</v>
-      </c>
-      <c r="O5" s="5">
-        <v>4</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4">
+        <v>4</v>
+      </c>
+      <c r="P5" s="5">
         <v>0.75</v>
       </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <v>3</v>
-      </c>
-      <c r="S5" s="5">
-        <v>3</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
-        <v>2</v>
-      </c>
-      <c r="V5" s="5">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="7">
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>3</v>
+      </c>
+      <c r="S5" s="4">
+        <v>3</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="6">
         <v>-1</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>42805</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>35.19</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>6</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>9</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.67</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>5</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>6</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>0.83</v>
       </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5">
-        <v>3</v>
-      </c>
-      <c r="M6" s="6">
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5">
         <v>0.33</v>
       </c>
-      <c r="N6" s="5">
-        <v>2</v>
-      </c>
-      <c r="O6" s="5">
-        <v>2</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>3</v>
-      </c>
-      <c r="R6" s="5">
-        <v>4</v>
-      </c>
-      <c r="S6" s="5">
+      <c r="N6" s="4">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4">
+        <v>4</v>
+      </c>
+      <c r="S6" s="4">
         <v>7</v>
       </c>
-      <c r="T6" s="5">
-        <v>1</v>
-      </c>
-      <c r="U6" s="5">
-        <v>3</v>
-      </c>
-      <c r="V6" s="5">
-        <v>1</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="7">
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>3</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="6">
         <v>17</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>42812</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4">
+        <v>25.16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>3</v>
+      </c>
+      <c r="S7" s="4">
+        <v>4</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>-3</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>42806</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4">
+        <v>14.98</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>3</v>
+      </c>
+      <c r="S8" s="4">
+        <v>3</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>2</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>42805</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4">
+        <v>35.19</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>3</v>
+      </c>
+      <c r="R9" s="4">
+        <v>4</v>
+      </c>
+      <c r="S9" s="4">
+        <v>7</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <v>3</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>17</v>
+      </c>
+      <c r="Z9" s="4">
         <v>15</v>
       </c>
     </row>
@@ -965,34 +1206,34 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1086,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,34 +1349,34 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1218,242 +1459,242 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>42812</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>25.16</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>2</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5">
-        <v>2</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="5">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="5">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5">
-        <v>3</v>
-      </c>
-      <c r="S4" s="5">
-        <v>4</v>
-      </c>
-      <c r="T4" s="5">
-        <v>1</v>
-      </c>
-      <c r="U4" s="5">
-        <v>1</v>
-      </c>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="7">
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>3</v>
+      </c>
+      <c r="S4" s="4">
+        <v>4</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="6">
         <v>-3</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>42806</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>14.98</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>3</v>
-      </c>
-      <c r="O5" s="5">
-        <v>4</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4">
+        <v>4</v>
+      </c>
+      <c r="P5" s="5">
         <v>0.75</v>
       </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <v>3</v>
-      </c>
-      <c r="S5" s="5">
-        <v>3</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
-        <v>2</v>
-      </c>
-      <c r="V5" s="5">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="7">
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>3</v>
+      </c>
+      <c r="S5" s="4">
+        <v>3</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="6">
         <v>-1</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>42805</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>35.19</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>6</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>9</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.67</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>5</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>6</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>0.83</v>
       </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5">
-        <v>3</v>
-      </c>
-      <c r="M6" s="6">
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5">
         <v>0.33</v>
       </c>
-      <c r="N6" s="5">
-        <v>2</v>
-      </c>
-      <c r="O6" s="5">
-        <v>2</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>3</v>
-      </c>
-      <c r="R6" s="5">
-        <v>4</v>
-      </c>
-      <c r="S6" s="5">
+      <c r="N6" s="4">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4">
+        <v>4</v>
+      </c>
+      <c r="S6" s="4">
         <v>7</v>
       </c>
-      <c r="T6" s="5">
-        <v>1</v>
-      </c>
-      <c r="U6" s="5">
-        <v>3</v>
-      </c>
-      <c r="V6" s="5">
-        <v>1</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="7">
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>3</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="6">
         <v>17</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1489,34 +1730,34 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1630,34 +1871,34 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1771,34 +2012,34 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1890,9 +2131,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:Z15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1912,34 +2155,34 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2019,6 +2262,966 @@
       </c>
       <c r="Z3" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>42812</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4">
+        <v>25.16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>3</v>
+      </c>
+      <c r="S4" s="4">
+        <v>4</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>-3</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>42806</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4">
+        <v>14.98</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4">
+        <v>4</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>3</v>
+      </c>
+      <c r="S5" s="4">
+        <v>3</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>42805</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4">
+        <v>35.19</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>6</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4">
+        <v>4</v>
+      </c>
+      <c r="S6" s="4">
+        <v>7</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>3</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>17</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>42812</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4">
+        <v>25.16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>3</v>
+      </c>
+      <c r="S7" s="4">
+        <v>4</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>-3</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>42806</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4">
+        <v>14.98</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>3</v>
+      </c>
+      <c r="S8" s="4">
+        <v>3</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>2</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>42805</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4">
+        <v>35.19</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>3</v>
+      </c>
+      <c r="R9" s="4">
+        <v>4</v>
+      </c>
+      <c r="S9" s="4">
+        <v>7</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <v>3</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>17</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>42812</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4">
+        <v>25.16</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>3</v>
+      </c>
+      <c r="S10" s="4">
+        <v>4</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>-3</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>42806</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4">
+        <v>14.98</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>3</v>
+      </c>
+      <c r="O11" s="4">
+        <v>4</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>3</v>
+      </c>
+      <c r="S11" s="4">
+        <v>3</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>2</v>
+      </c>
+      <c r="V11" s="4">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>42805</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4">
+        <v>35.19</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>6</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>3</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="N12" s="4">
+        <v>2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>3</v>
+      </c>
+      <c r="R12" s="4">
+        <v>4</v>
+      </c>
+      <c r="S12" s="4">
+        <v>7</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <v>3</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>17</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>42812</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4">
+        <v>25.16</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4">
+        <v>3</v>
+      </c>
+      <c r="S13" s="4">
+        <v>4</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>-3</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>42806</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4">
+        <v>14.98</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>3</v>
+      </c>
+      <c r="O14" s="4">
+        <v>4</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>3</v>
+      </c>
+      <c r="S14" s="4">
+        <v>3</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>2</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>42805</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4">
+        <v>35.19</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>3</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>3</v>
+      </c>
+      <c r="R15" s="4">
+        <v>4</v>
+      </c>
+      <c r="S15" s="4">
+        <v>7</v>
+      </c>
+      <c r="T15" s="4">
+        <v>1</v>
+      </c>
+      <c r="U15" s="4">
+        <v>3</v>
+      </c>
+      <c r="V15" s="4">
+        <v>1</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>17</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/web/Statistik/Players/CTH-IBL SEASON 2017-2018.xlsx
+++ b/web/Statistik/Players/CTH-IBL SEASON 2017-2018.xlsx
@@ -5,32 +5,32 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meiiko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Atang" sheetId="1" r:id="rId1"/>
-    <sheet name="gfdgdf" sheetId="2" r:id="rId2"/>
-    <sheet name="Otong" sheetId="3" r:id="rId3"/>
-    <sheet name="qwe" sheetId="4" r:id="rId4"/>
-    <sheet name="qwert" sheetId="5" r:id="rId5"/>
-    <sheet name="treretre" sheetId="6" r:id="rId6"/>
-    <sheet name="y" sheetId="7" r:id="rId7"/>
+    <sheet name="Aditya Reynaldi Lumanauw" sheetId="1" r:id="rId1"/>
+    <sheet name="Bayu Anggara" sheetId="2" r:id="rId2"/>
+    <sheet name="Darnell Brown II" sheetId="3" r:id="rId3"/>
+    <sheet name="Dian Heryadi" sheetId="4" r:id="rId4"/>
+    <sheet name="Fadlan Minallah" sheetId="5" r:id="rId5"/>
+    <sheet name="Fisyaiful Amir" sheetId="6" r:id="rId6"/>
+    <sheet name="Freddy Bachtiar" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="44">
   <si>
     <t>ID_Pemain</t>
   </si>
   <si>
-    <t>203</t>
+    <t>234</t>
   </si>
   <si>
     <t>Dont Delete This!</t>
@@ -117,44 +117,53 @@
     <t>PTS</t>
   </si>
   <si>
-    <t>210</t>
+    <t>232</t>
   </si>
   <si>
-    <t>201</t>
+    <t>238</t>
   </si>
   <si>
-    <t>205</t>
+    <t>171</t>
   </si>
   <si>
-    <t>211</t>
+    <t>77</t>
   </si>
   <si>
-    <t>207</t>
+    <t>237</t>
   </si>
   <si>
-    <t>206</t>
+    <t>236</t>
   </si>
   <si>
-    <t>CLS vs BPJ</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>PCF vs BPJ</t>
+    <t>SIL vs PCF</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>SWS vs BPJ</t>
+    <t>PJB vs SIL</t>
+  </si>
+  <si>
+    <t>SIL vs STP</t>
+  </si>
+  <si>
+    <t>SIL vs SWS</t>
+  </si>
+  <si>
+    <t>SIL vs GRB</t>
+  </si>
+  <si>
+    <t>BPJ vs SIL</t>
+  </si>
+  <si>
+    <t>PCF vs SIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -178,14 +187,8 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,14 +210,8 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -237,21 +234,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -268,18 +250,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:Z8"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,22 +673,22 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>42812</v>
-      </c>
-      <c r="B4" t="s">
+        <v>43119</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="6">
-        <v>24.32</v>
+        <v>12.6</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -719,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -734,28 +712,28 @@
         <v>0</v>
       </c>
       <c r="N4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S4" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4" s="6">
         <v>0</v>
@@ -764,72 +742,72 @@
         <v>0</v>
       </c>
       <c r="X4" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>-3</v>
+        <v>2</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>-5</v>
       </c>
       <c r="Z4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>42806</v>
-      </c>
-      <c r="B5" t="s">
+        <v>43106</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6">
-        <v>14.98</v>
+        <v>13.57</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="H5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="7">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
       </c>
       <c r="L5" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="6">
         <v>0</v>
       </c>
       <c r="R5" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S5" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5" s="6">
         <v>0</v>
@@ -838,81 +816,81 @@
         <v>2</v>
       </c>
       <c r="V5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>-5</v>
       </c>
       <c r="Z5" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>42805</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
+        <v>43105</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6">
-        <v>25.68</v>
+        <v>16.28</v>
       </c>
       <c r="E6" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6" s="7">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J6" s="7">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="6">
         <v>1</v>
       </c>
       <c r="L6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" s="7">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R6" s="6">
         <v>4</v>
       </c>
       <c r="S6" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T6" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U6" s="6">
         <v>3</v>
@@ -924,72 +902,72 @@
         <v>0</v>
       </c>
       <c r="X6" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>10</v>
       </c>
       <c r="Z6" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>42812</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>43093</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="6">
-        <v>25.16</v>
+        <v>6.94</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" s="7">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="Q7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S7" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T7" s="6">
         <v>1</v>
@@ -1001,96 +979,416 @@
         <v>0</v>
       </c>
       <c r="W7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>-3</v>
+        <v>3</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>7</v>
       </c>
       <c r="Z7" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>42806</v>
-      </c>
-      <c r="B8" t="s">
+        <v>43092</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6">
+        <v>14.85</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>3</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>2</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>2</v>
+      </c>
+      <c r="R8" s="6">
+        <v>3</v>
+      </c>
+      <c r="S8" s="6">
+        <v>5</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6">
+        <v>1</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>43086</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
+        <v>2</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
+      <c r="R9" s="6">
+        <v>2</v>
+      </c>
+      <c r="S9" s="6">
+        <v>3</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>2</v>
+      </c>
+      <c r="V9" s="6">
+        <v>1</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>43085</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8.15</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6">
+        <v>3</v>
+      </c>
+      <c r="S10" s="6">
         <v>4</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>2</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>43084</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10.07</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
         <v>4</v>
       </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>3</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="G11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <v>1</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
         <v>4</v>
       </c>
-      <c r="P8" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <v>3</v>
-      </c>
-      <c r="S8" s="6">
-        <v>3</v>
-      </c>
-      <c r="T8" s="6">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>2</v>
-      </c>
-      <c r="V8" s="6">
-        <v>1</v>
-      </c>
-      <c r="W8" s="6">
-        <v>0</v>
-      </c>
-      <c r="X8" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="8">
+      <c r="Z11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>43079</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6">
+        <v>19.54</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>4</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>2</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1</v>
+      </c>
+      <c r="S12" s="6">
+        <v>3</v>
+      </c>
+      <c r="T12" s="6">
+        <v>2</v>
+      </c>
+      <c r="U12" s="6">
+        <v>2</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>1</v>
+      </c>
+      <c r="X12" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="6">
         <v>-1</v>
       </c>
-      <c r="Z8" s="6">
-        <v>3</v>
+      <c r="Z12" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1103,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,242 +1536,82 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>42806</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
+        <v>43119</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6">
-        <v>18.78</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6">
         <v>5</v>
       </c>
       <c r="G4" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="7">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="K4" s="6">
         <v>0</v>
       </c>
       <c r="L4" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O4" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6">
         <v>0</v>
       </c>
       <c r="R4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6">
         <v>0</v>
       </c>
       <c r="X4" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>2</v>
       </c>
       <c r="Z4" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>42805</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="6">
-        <v>25.68</v>
-      </c>
-      <c r="E5" s="6">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6">
-        <v>9</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="H5" s="6">
-        <v>5</v>
-      </c>
-      <c r="I5" s="6">
-        <v>6</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.83</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>3</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="N5" s="6">
-        <v>2</v>
-      </c>
-      <c r="O5" s="6">
-        <v>2</v>
-      </c>
-      <c r="P5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>3</v>
-      </c>
-      <c r="R5" s="6">
-        <v>4</v>
-      </c>
-      <c r="S5" s="6">
-        <v>7</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6">
-        <v>3</v>
-      </c>
-      <c r="V5" s="6">
-        <v>1</v>
-      </c>
-      <c r="W5" s="6">
-        <v>0</v>
-      </c>
-      <c r="X5" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>17</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>42812</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="6">
-        <v>25.16</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>2</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6">
-        <v>2</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6">
-        <v>3</v>
-      </c>
-      <c r="S6" s="6">
-        <v>4</v>
-      </c>
-      <c r="T6" s="6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="6">
-        <v>1</v>
-      </c>
-      <c r="V6" s="6">
-        <v>0</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>-3</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1486,9 +1624,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:Z10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1617,6 +1757,566 @@
         <v>29</v>
       </c>
     </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43119</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6">
+        <v>35.81</v>
+      </c>
+      <c r="E4" s="6">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="H4" s="6">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6">
+        <v>5</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N4" s="6">
+        <v>2</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>2</v>
+      </c>
+      <c r="R4" s="6">
+        <v>2</v>
+      </c>
+      <c r="S4" s="6">
+        <v>4</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>43092</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6">
+        <v>36.229999999999997</v>
+      </c>
+      <c r="E5" s="6">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="H5" s="6">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6">
+        <v>17</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>4</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="6">
+        <v>3</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>6</v>
+      </c>
+      <c r="S5" s="6">
+        <v>7</v>
+      </c>
+      <c r="T5" s="6">
+        <v>3</v>
+      </c>
+      <c r="U5" s="6">
+        <v>2</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>43086</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6">
+        <v>33.53</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="6">
+        <v>7</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N6" s="6">
+        <v>2</v>
+      </c>
+      <c r="O6" s="6">
+        <v>2</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>2</v>
+      </c>
+      <c r="S6" s="6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6">
+        <v>3</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>43085</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6">
+        <v>36.93</v>
+      </c>
+      <c r="E7" s="6">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>7</v>
+      </c>
+      <c r="I7" s="6">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>4</v>
+      </c>
+      <c r="O7" s="6">
+        <v>6</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6">
+        <v>3</v>
+      </c>
+      <c r="S7" s="6">
+        <v>4</v>
+      </c>
+      <c r="T7" s="6">
+        <v>4</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6">
+        <v>1</v>
+      </c>
+      <c r="W7" s="6">
+        <v>2</v>
+      </c>
+      <c r="X7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>43084</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6">
+        <v>19</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2</v>
+      </c>
+      <c r="L8" s="6">
+        <v>4</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="6">
+        <v>2</v>
+      </c>
+      <c r="O8" s="6">
+        <v>5</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6">
+        <v>6</v>
+      </c>
+      <c r="S8" s="6">
+        <v>7</v>
+      </c>
+      <c r="T8" s="6">
+        <v>3</v>
+      </c>
+      <c r="U8" s="6">
+        <v>1</v>
+      </c>
+      <c r="V8" s="6">
+        <v>2</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>43079</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6">
+        <v>36.47</v>
+      </c>
+      <c r="E9" s="6">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="H9" s="6">
+        <v>8</v>
+      </c>
+      <c r="I9" s="6">
+        <v>17</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>4</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>7</v>
+      </c>
+      <c r="O9" s="6">
+        <v>7</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
+      <c r="R9" s="6">
+        <v>2</v>
+      </c>
+      <c r="S9" s="6">
+        <v>3</v>
+      </c>
+      <c r="T9" s="6">
+        <v>3</v>
+      </c>
+      <c r="U9" s="6">
+        <v>2</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>17</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>43077</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="E10" s="6">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6">
+        <v>13</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>4</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="N10" s="6">
+        <v>5</v>
+      </c>
+      <c r="O10" s="6">
+        <v>6</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>2</v>
+      </c>
+      <c r="R10" s="6">
+        <v>3</v>
+      </c>
+      <c r="S10" s="6">
+        <v>5</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1</v>
+      </c>
+      <c r="U10" s="6">
+        <v>2</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>13</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:Z2"/>
@@ -1627,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,6 +2460,326 @@
         <v>29</v>
       </c>
     </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43093</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6">
+        <v>8.16</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>-2</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>43092</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6">
+        <v>1</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>43079</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>43077</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:Z2"/>
@@ -1770,9 +2790,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1901,6 +2923,806 @@
         <v>29</v>
       </c>
     </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43119</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6">
+        <v>28.98</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>3</v>
+      </c>
+      <c r="R4" s="6">
+        <v>2</v>
+      </c>
+      <c r="S4" s="6">
+        <v>5</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="6">
+        <v>1</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>43106</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6">
+        <v>36.06</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>6</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>3</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>2</v>
+      </c>
+      <c r="R5" s="6">
+        <v>2</v>
+      </c>
+      <c r="S5" s="6">
+        <v>4</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <v>2</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>-3</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>43105</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6">
+        <v>15.12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>2</v>
+      </c>
+      <c r="S6" s="6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>43093</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12.84</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6">
+        <v>4</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>2</v>
+      </c>
+      <c r="S7" s="6">
+        <v>2</v>
+      </c>
+      <c r="T7" s="6">
+        <v>2</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6">
+        <v>1</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>43092</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6">
+        <v>19.37</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>2</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6">
+        <v>6</v>
+      </c>
+      <c r="S8" s="6">
+        <v>7</v>
+      </c>
+      <c r="T8" s="6">
+        <v>2</v>
+      </c>
+      <c r="U8" s="6">
+        <v>1</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>43086</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6">
+        <v>21.12</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>1</v>
+      </c>
+      <c r="S9" s="6">
+        <v>1</v>
+      </c>
+      <c r="T9" s="6">
+        <v>3</v>
+      </c>
+      <c r="U9" s="6">
+        <v>2</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>43085</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6">
+        <v>35.01</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>2</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>2</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>1</v>
+      </c>
+      <c r="S10" s="6">
+        <v>1</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1</v>
+      </c>
+      <c r="U10" s="6">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6">
+        <v>1</v>
+      </c>
+      <c r="W10" s="6">
+        <v>1</v>
+      </c>
+      <c r="X10" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>-2</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>43084</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6">
+        <v>30.95</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="6">
+        <v>2</v>
+      </c>
+      <c r="S11" s="6">
+        <v>3</v>
+      </c>
+      <c r="T11" s="6">
+        <v>2</v>
+      </c>
+      <c r="U11" s="6">
+        <v>2</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>43079</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6">
+        <v>25.85</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>2</v>
+      </c>
+      <c r="O12" s="6">
+        <v>2</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6">
+        <v>6</v>
+      </c>
+      <c r="S12" s="6">
+        <v>7</v>
+      </c>
+      <c r="T12" s="6">
+        <v>2</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <v>1</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>43077</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="6">
+        <v>15.31</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>3</v>
+      </c>
+      <c r="S13" s="6">
+        <v>3</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <v>1</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:Z2"/>
@@ -1911,9 +3733,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:Z12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2042,6 +3866,726 @@
         <v>29</v>
       </c>
     </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43119</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7.55</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>2</v>
+      </c>
+      <c r="S4" s="6">
+        <v>2</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>43105</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6">
+        <v>19.18</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>3</v>
+      </c>
+      <c r="O5" s="6">
+        <v>4</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>6</v>
+      </c>
+      <c r="S5" s="6">
+        <v>6</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <v>1</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>43093</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6">
+        <v>16.36</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>2</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>2</v>
+      </c>
+      <c r="S6" s="6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>43092</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.89</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>2</v>
+      </c>
+      <c r="O7" s="6">
+        <v>2</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6">
+        <v>1</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>43086</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6">
+        <v>9.17</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>1</v>
+      </c>
+      <c r="S8" s="6">
+        <v>1</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6">
+        <v>1</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>43085</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7.83</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>2</v>
+      </c>
+      <c r="S9" s="6">
+        <v>2</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>1</v>
+      </c>
+      <c r="V9" s="6">
+        <v>1</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>43084</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9.42</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>1</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6">
+        <v>1</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>43079</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>43077</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6.17</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>1</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>-2</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:Z2"/>
@@ -2052,10 +4596,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:Z8"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,203 +4731,203 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>42812</v>
-      </c>
-      <c r="B4" t="s">
+        <v>43119</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="6">
-        <v>25.16</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="6">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>2</v>
-      </c>
       <c r="J4" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S4" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="6">
         <v>0</v>
       </c>
       <c r="X4" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>-3</v>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>7</v>
       </c>
       <c r="Z4" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>42806</v>
-      </c>
-      <c r="B5" t="s">
+        <v>43106</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6">
-        <v>14.98</v>
+        <v>22.38</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="6">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="H5" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J5" s="7">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
       </c>
       <c r="L5" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="6">
         <v>0</v>
       </c>
       <c r="R5" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S5" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5" s="6">
         <v>0</v>
       </c>
       <c r="X5" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>-7</v>
       </c>
       <c r="Z5" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>42805</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
+        <v>43105</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6">
-        <v>35.19</v>
+        <v>27.18</v>
       </c>
       <c r="E6" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6">
         <v>5</v>
       </c>
-      <c r="I6" s="6">
-        <v>6</v>
-      </c>
       <c r="J6" s="7">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="K6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6" s="7">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N6" s="6">
         <v>2</v>
@@ -2395,100 +4939,100 @@
         <v>1</v>
       </c>
       <c r="Q6" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S6" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T6" s="6">
         <v>1</v>
       </c>
       <c r="U6" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>3</v>
       </c>
       <c r="Z6" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>42812</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>43093</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="6">
-        <v>25.16</v>
+        <v>29.1</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="H7" s="6">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2</v>
+      </c>
+      <c r="L7" s="6">
+        <v>6</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="N7" s="6">
+        <v>2</v>
+      </c>
+      <c r="O7" s="6">
+        <v>2</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6">
+        <v>2</v>
+      </c>
+      <c r="S7" s="6">
+        <v>3</v>
+      </c>
+      <c r="T7" s="6">
+        <v>2</v>
+      </c>
+      <c r="U7" s="6">
         <v>4</v>
       </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>2</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6">
-        <v>2</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6">
-        <v>3</v>
-      </c>
-      <c r="S7" s="6">
-        <v>4</v>
-      </c>
-      <c r="T7" s="6">
-        <v>1</v>
-      </c>
-      <c r="U7" s="6">
-        <v>1</v>
-      </c>
       <c r="V7" s="6">
         <v>0</v>
       </c>
@@ -2496,93 +5040,493 @@
         <v>0</v>
       </c>
       <c r="X7" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>-3</v>
+        <v>3</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>12</v>
       </c>
       <c r="Z7" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>42806</v>
-      </c>
-      <c r="B8" t="s">
+        <v>43092</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6">
+        <v>23.52</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>4</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>2</v>
+      </c>
+      <c r="S8" s="6">
+        <v>2</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6">
+        <v>0</v>
+      </c>
+      <c r="V8" s="6">
+        <v>1</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>43086</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6">
+        <v>22.41</v>
+      </c>
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="F9" s="6">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="6">
         <v>4</v>
       </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>3</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="I9" s="6">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>3</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>5</v>
+      </c>
+      <c r="S9" s="6">
+        <v>5</v>
+      </c>
+      <c r="T9" s="6">
+        <v>3</v>
+      </c>
+      <c r="U9" s="6">
+        <v>1</v>
+      </c>
+      <c r="V9" s="6">
+        <v>1</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>43085</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6">
+        <v>30.81</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>7</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3</v>
+      </c>
+      <c r="L10" s="6">
+        <v>9</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>2</v>
+      </c>
+      <c r="S10" s="6">
+        <v>2</v>
+      </c>
+      <c r="T10" s="6">
+        <v>2</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
         <v>4</v>
       </c>
-      <c r="P8" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <v>3</v>
-      </c>
-      <c r="S8" s="6">
-        <v>3</v>
-      </c>
-      <c r="T8" s="6">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>2</v>
-      </c>
-      <c r="V8" s="6">
-        <v>1</v>
-      </c>
-      <c r="W8" s="6">
-        <v>0</v>
-      </c>
-      <c r="X8" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>-1</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>3</v>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>11</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>43084</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6">
+        <v>25.27</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>8</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>4</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>4</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6">
+        <v>1</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <v>1</v>
+      </c>
+      <c r="X11" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>-2</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>43079</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20.65</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6">
+        <v>6</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6">
+        <v>5</v>
+      </c>
+      <c r="S12" s="6">
+        <v>6</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>1</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>43077</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="6">
+        <v>22.6</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>4</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>2</v>
+      </c>
+      <c r="L13" s="6">
+        <v>10</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N13" s="6">
+        <v>2</v>
+      </c>
+      <c r="O13" s="6">
+        <v>4</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>1</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1</v>
+      </c>
+      <c r="T13" s="6">
+        <v>7</v>
+      </c>
+      <c r="U13" s="6">
+        <v>2</v>
+      </c>
+      <c r="V13" s="6">
+        <v>3</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
